--- a/data/trans_orig/P57B5_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>162110</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139340</v>
+        <v>136539</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187850</v>
+        <v>186320</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3254373088237424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2797259973819115</v>
+        <v>0.2741031539854489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3771114874455879</v>
+        <v>0.3740390275912365</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>151</v>
@@ -762,19 +762,19 @@
         <v>131721</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112172</v>
+        <v>112668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154258</v>
+        <v>154388</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2120715615059692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1805985557206581</v>
+        <v>0.1813971981924488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2483571993113209</v>
+        <v>0.2485655825665755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -783,19 +783,19 @@
         <v>293831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>264599</v>
+        <v>264126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330119</v>
+        <v>328895</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2625259996139432</v>
+        <v>0.2625259996139433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2364084436511175</v>
+        <v>0.2359860395968713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2949484053827606</v>
+        <v>0.2938550153785893</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>190265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169364</v>
+        <v>166921</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214022</v>
+        <v>215497</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3819597130935422</v>
+        <v>0.3819597130935423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3400000096669146</v>
+        <v>0.3350957851658445</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4296522996754643</v>
+        <v>0.432613431983924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>321</v>
@@ -833,19 +833,19 @@
         <v>238014</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214568</v>
+        <v>218826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260839</v>
+        <v>263824</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.383205204790542</v>
+        <v>0.3832052047905421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3454572925300051</v>
+        <v>0.3523118157663494</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4199533805532774</v>
+        <v>0.4247596359001006</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>495</v>
@@ -854,19 +854,19 @@
         <v>428280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>396156</v>
+        <v>395645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>462595</v>
+        <v>463417</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3826508875895613</v>
+        <v>0.3826508875895614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3539496048677903</v>
+        <v>0.3534931520855571</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4133098992986665</v>
+        <v>0.4140446875691871</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>103225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85125</v>
+        <v>86667</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121816</v>
+        <v>122596</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2072252377027984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1708896962168704</v>
+        <v>0.173984184931405</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.24454731855593</v>
+        <v>0.2461139351319304</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>259</v>
@@ -904,19 +904,19 @@
         <v>174665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153509</v>
+        <v>155862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193654</v>
+        <v>195002</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.281211849480117</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2471506109131126</v>
+        <v>0.2509396928149565</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3117853816923302</v>
+        <v>0.3139554357286346</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>373</v>
@@ -925,19 +925,19 @@
         <v>277890</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>250305</v>
+        <v>252012</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308234</v>
+        <v>304982</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2482834472681714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.223637808956452</v>
+        <v>0.2251630566567932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2753945149623971</v>
+        <v>0.2724891600151512</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>42529</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31530</v>
+        <v>32197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57452</v>
+        <v>56632</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08537774037991697</v>
+        <v>0.08537774037991698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06329777244876127</v>
+        <v>0.06463518979061889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.115336255202534</v>
+        <v>0.1136888480235779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -975,19 +975,19 @@
         <v>76715</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64283</v>
+        <v>63927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91220</v>
+        <v>90902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1235113842233718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1034960169972484</v>
+        <v>0.1029225593881855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1468645473443504</v>
+        <v>0.1463536894498041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -996,19 +996,19 @@
         <v>119244</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101934</v>
+        <v>101650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139101</v>
+        <v>137424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.106539665528324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09107365857377728</v>
+        <v>0.09082030532215814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1242815291281462</v>
+        <v>0.1227831062402769</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>368842</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>336975</v>
+        <v>331728</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>405597</v>
+        <v>400428</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3846882044587149</v>
+        <v>0.3846882044587148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3514527297820872</v>
+        <v>0.3459795745348577</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4230223109693227</v>
+        <v>0.4176320128535119</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>385</v>
@@ -1121,19 +1121,19 @@
         <v>313434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>286761</v>
+        <v>287031</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>345174</v>
+        <v>342295</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2817208869011646</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2577458826875321</v>
+        <v>0.2579887779171351</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.310249357563753</v>
+        <v>0.3076610688740695</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>685</v>
@@ -1142,19 +1142,19 @@
         <v>682276</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>636279</v>
+        <v>641349</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>722932</v>
+        <v>731457</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3293827673929253</v>
+        <v>0.3293827673929252</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3071765719001671</v>
+        <v>0.3096243547234172</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3490101057586218</v>
+        <v>0.353125921748731</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>398667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>366332</v>
+        <v>365074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>431664</v>
+        <v>435590</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4157946373398664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3820710593300662</v>
+        <v>0.380758953671416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4502095124240949</v>
+        <v>0.4543040491134401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>731</v>
@@ -1192,19 +1192,19 @@
         <v>508776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>476548</v>
+        <v>481007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>537279</v>
+        <v>540351</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4572971965928809</v>
+        <v>0.4572971965928808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4283307276472886</v>
+        <v>0.432338013318938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4829166024901356</v>
+        <v>0.485677327198102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1110</v>
@@ -1213,19 +1213,19 @@
         <v>907442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>866157</v>
+        <v>862722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>956011</v>
+        <v>952342</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4380863434198456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4181548645099989</v>
+        <v>0.4164968839746442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4615338381351482</v>
+        <v>0.4597627228930455</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>150404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130113</v>
+        <v>129573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173265</v>
+        <v>172896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1568658037883203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1357025264326487</v>
+        <v>0.1351398096331367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1807087871288857</v>
+        <v>0.1803241606844875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>348</v>
@@ -1263,19 +1263,19 @@
         <v>213857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>195494</v>
+        <v>191826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>238967</v>
+        <v>235278</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1922187290860504</v>
+        <v>0.1922187290860503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1757137088854163</v>
+        <v>0.1724168792408525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.214788042386687</v>
+        <v>0.2114723771732983</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -1284,19 +1284,19 @@
         <v>364261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334170</v>
+        <v>333665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394127</v>
+        <v>396985</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1758544404890129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1613276125718273</v>
+        <v>0.1610836046377929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1902730673485592</v>
+        <v>0.1916523893492308</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>40894</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30982</v>
+        <v>30213</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55320</v>
+        <v>54684</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04265135441309854</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03231271866576381</v>
+        <v>0.03151071175098639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05769639036673769</v>
+        <v>0.05703305719016128</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -1334,19 +1334,19 @@
         <v>76504</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>64507</v>
+        <v>64442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91088</v>
+        <v>91572</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06876318741990427</v>
+        <v>0.06876318741990425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05798022883541497</v>
+        <v>0.05792150551093996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08187121032521405</v>
+        <v>0.08230648591187838</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -1355,19 +1355,19 @@
         <v>117398</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98362</v>
+        <v>100145</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>134867</v>
+        <v>136966</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05667644869821628</v>
+        <v>0.05667644869821627</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04748602526979986</v>
+        <v>0.04834693394235733</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06511000272134046</v>
+        <v>0.06612306489806338</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>471275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>438372</v>
+        <v>438021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>508379</v>
+        <v>509676</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4512854007404673</v>
+        <v>0.4512854007404672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4197787056186143</v>
+        <v>0.419442629326046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4868159906546908</v>
+        <v>0.4880577138002458</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>449</v>
@@ -1480,19 +1480,19 @@
         <v>361995</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>335007</v>
+        <v>333052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390073</v>
+        <v>391120</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3464032357148924</v>
+        <v>0.3464032357148923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3205771972506562</v>
+        <v>0.3187064056918409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3732720333187714</v>
+        <v>0.3742731535519203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -1501,19 +1501,19 @@
         <v>833270</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>787165</v>
+        <v>787729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>878399</v>
+        <v>879041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3988263301324982</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3767590807486286</v>
+        <v>0.3770293068567953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4204262623399858</v>
+        <v>0.4207336474625473</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>421737</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>385076</v>
+        <v>387128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>453290</v>
+        <v>456729</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4038489192673274</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3687432972794232</v>
+        <v>0.3707079929693214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4340637026319502</v>
+        <v>0.437356881017044</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>663</v>
@@ -1551,19 +1551,19 @@
         <v>453053</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>425360</v>
+        <v>425940</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>483690</v>
+        <v>482221</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4335393840058083</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4070392471094356</v>
+        <v>0.4075934291755128</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4628562805462929</v>
+        <v>0.4614506135311531</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1096</v>
@@ -1572,19 +1572,19 @@
         <v>874790</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>831347</v>
+        <v>828986</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>917097</v>
+        <v>918621</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.418699243778836</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3979062176523577</v>
+        <v>0.396775879155322</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4389482334574679</v>
+        <v>0.4396778879723816</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>126584</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105923</v>
+        <v>107986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148638</v>
+        <v>149784</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1212153649165321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1014301378848275</v>
+        <v>0.1034058344899383</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1423333132463042</v>
+        <v>0.1434308267047938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>322</v>
@@ -1622,19 +1622,19 @@
         <v>185618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165856</v>
+        <v>167131</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>206739</v>
+        <v>207738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1776227241524995</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1587123879357172</v>
+        <v>0.1599318452021322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1978342314050144</v>
+        <v>0.1987903180449672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>477</v>
@@ -1643,19 +1643,19 @@
         <v>312202</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>285816</v>
+        <v>286554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>342566</v>
+        <v>344298</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1494287188289646</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1367995993559407</v>
+        <v>0.1371526516722006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.163961465073049</v>
+        <v>0.1647904623955736</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>24698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16348</v>
+        <v>15763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37706</v>
+        <v>37875</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02365031507567326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01565421339458313</v>
+        <v>0.01509412767520665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03610685117236427</v>
+        <v>0.03626891735288114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -1693,19 +1693,19 @@
         <v>44345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34996</v>
+        <v>34490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56467</v>
+        <v>54686</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04243465612679978</v>
+        <v>0.04243465612679977</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03348827182812624</v>
+        <v>0.03300432378190003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05403460661458811</v>
+        <v>0.05233080196664038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -1714,19 +1714,19 @@
         <v>69043</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57011</v>
+        <v>55630</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85097</v>
+        <v>85100</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03304570725970123</v>
+        <v>0.03304570725970124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0272868777633838</v>
+        <v>0.02662623700496981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04072984429464235</v>
+        <v>0.04073131615939599</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>408832</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>374858</v>
+        <v>373687</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>445191</v>
+        <v>442544</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4202407871551302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3853187228456684</v>
+        <v>0.3841148275861248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4576139675323608</v>
+        <v>0.45489304806897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>430</v>
@@ -1839,19 +1839,19 @@
         <v>345641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>315381</v>
+        <v>317679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>371806</v>
+        <v>373303</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3805568780460598</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3472395400652464</v>
+        <v>0.3497705862143647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4093649027741961</v>
+        <v>0.411013156615688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>773</v>
@@ -1860,19 +1860,19 @@
         <v>754473</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>706372</v>
+        <v>712893</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>802014</v>
+        <v>799816</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4010802514383091</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3755096815230181</v>
+        <v>0.3789760565604009</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4263531789369233</v>
+        <v>0.4251848162106125</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>371446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>339087</v>
+        <v>338858</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>407386</v>
+        <v>404749</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3818112865069027</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3485496482814976</v>
+        <v>0.3483137575470244</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4187541644186092</v>
+        <v>0.4160442475699277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>520</v>
@@ -1910,19 +1910,19 @@
         <v>345043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>318260</v>
+        <v>320449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>371696</v>
+        <v>371562</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3798978943156317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3504092525834539</v>
+        <v>0.3528202946837088</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4092432077547126</v>
+        <v>0.4090957197138191</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>904</v>
@@ -1931,19 +1931,19 @@
         <v>716489</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>674958</v>
+        <v>674728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>758975</v>
+        <v>757529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3808874455788235</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3588094480182356</v>
+        <v>0.3586871797478676</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4034732137704918</v>
+        <v>0.4027049186544544</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>159784</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>136956</v>
+        <v>138487</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>185552</v>
+        <v>185203</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1642426568924842</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1407780739641817</v>
+        <v>0.142351109383678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1907300821186025</v>
+        <v>0.1903716431839603</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>316</v>
@@ -1981,19 +1981,19 @@
         <v>178943</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>160848</v>
+        <v>160174</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>202673</v>
+        <v>201023</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1970192393116334</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1770967878436696</v>
+        <v>0.1763538325692385</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2231460724964549</v>
+        <v>0.2213292465385439</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>501</v>
@@ -2002,19 +2002,19 @@
         <v>338727</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>308218</v>
+        <v>306714</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>370196</v>
+        <v>369588</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1800681360909006</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1638496390130132</v>
+        <v>0.1630498982140146</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1967970757730662</v>
+        <v>0.1964741184956812</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>32790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21502</v>
+        <v>22382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47046</v>
+        <v>46727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03370526944548301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02210167062768517</v>
+        <v>0.0230068392424739</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04835920380351245</v>
+        <v>0.04803100482489443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2052,19 +2052,19 @@
         <v>38624</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29327</v>
+        <v>29082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49968</v>
+        <v>50943</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04252598832667512</v>
+        <v>0.04252598832667513</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03228912719874841</v>
+        <v>0.03202006109017931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05501537837574821</v>
+        <v>0.05608896260816558</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2073,19 +2073,19 @@
         <v>71415</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56043</v>
+        <v>56452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88761</v>
+        <v>89189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03796416689196692</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02979285706718269</v>
+        <v>0.03001021209523905</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0471857270040744</v>
+        <v>0.04741302203466927</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1411059</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1345170</v>
+        <v>1346368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1478672</v>
+        <v>1476235</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4061672160899001</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3872014917967041</v>
+        <v>0.3875462492730828</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4256294330293776</v>
+        <v>0.4249280879398189</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1415</v>
@@ -2198,19 +2198,19 @@
         <v>1152791</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1100823</v>
+        <v>1100407</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1211395</v>
+        <v>1204319</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.312668285975076</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2985729588464983</v>
+        <v>0.298460172573708</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3285632964512958</v>
+        <v>0.3266440391786794</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2588</v>
@@ -2219,19 +2219,19 @@
         <v>2563850</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2477810</v>
+        <v>2479219</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2647829</v>
+        <v>2642852</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.358028104992594</v>
+        <v>0.3580281049925939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3460130062747421</v>
+        <v>0.3462098092795287</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3697553822633407</v>
+        <v>0.3690603135239496</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1382115</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1320011</v>
+        <v>1320584</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1446464</v>
+        <v>1445736</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.397835999602223</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3799594412848238</v>
+        <v>0.3801245239162589</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4163585310595159</v>
+        <v>0.4161488806312672</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2235</v>
@@ -2269,19 +2269,19 @@
         <v>1544886</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1491295</v>
+        <v>1492588</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1598095</v>
+        <v>1596805</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4190149158147818</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.404479704372456</v>
+        <v>0.4048304534250887</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4334466903853927</v>
+        <v>0.4330967695536218</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3605</v>
@@ -2290,19 +2290,19 @@
         <v>2927001</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2844770</v>
+        <v>2843069</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3010044</v>
+        <v>3007454</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4087402334712612</v>
+        <v>0.4087402334712611</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3972571552491519</v>
+        <v>0.397019581029413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4203366906295442</v>
+        <v>0.4199750204101746</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>539997</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>495197</v>
+        <v>496973</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>583159</v>
+        <v>578546</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1554359453519049</v>
+        <v>0.1554359453519048</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1425403522164275</v>
+        <v>0.1430514922509525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1678597390676134</v>
+        <v>0.166532124613055</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1245</v>
@@ -2340,19 +2340,19 @@
         <v>753082</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>710391</v>
+        <v>714956</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>791387</v>
+        <v>800049</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2042563271065638</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1926772811125704</v>
+        <v>0.1939154314176238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2146456956154228</v>
+        <v>0.2169950608174609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1878</v>
@@ -2361,19 +2361,19 @@
         <v>1293080</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1235507</v>
+        <v>1231569</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1353641</v>
+        <v>1351516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1805717386515097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1725320782031509</v>
+        <v>0.171982158535446</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1890288240009784</v>
+        <v>0.1887320630521886</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>140912</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>120970</v>
+        <v>119757</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>167172</v>
+        <v>166781</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04056083895597211</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03482062868347147</v>
+        <v>0.03447165040306569</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04811967221856706</v>
+        <v>0.04800710379993364</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>394</v>
@@ -2411,19 +2411,19 @@
         <v>236188</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>212567</v>
+        <v>212411</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>261134</v>
+        <v>262498</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06406047110357853</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05765382424593629</v>
+        <v>0.0576116894877535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07082652292768397</v>
+        <v>0.07119652701862515</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>549</v>
@@ -2432,19 +2432,19 @@
         <v>377099</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>344350</v>
+        <v>342256</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>410162</v>
+        <v>411119</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.05265992288463509</v>
+        <v>0.05265992288463508</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0480866464540937</v>
+        <v>0.04779428832961732</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05727696480120188</v>
+        <v>0.05741055333320121</v>
       </c>
     </row>
     <row r="28">
